--- a/StructureDefinition-ext-R5-CodeSystem.concept.xlsx
+++ b/StructureDefinition-ext-R5-CodeSystem.concept.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -610,7 +610,7 @@
     <t>This was added rather than increasing the cardinality of .use to 0..* in order to maintain backward compatibility.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.concept.designation.additionalUse` is mapped to FHIR R4 structure `CodeSystem`, but has no target element specified.</t>
+    <t>Element `CodeSystem.concept.designation.additionalUse` is will have a context of CodeSystem.concept.designation based on following the parent source element upwards and mapping to `CodeSystem`.</t>
   </si>
   <si>
     <t>Extension.extension:designation.extension:additionalUse.id</t>

--- a/StructureDefinition-ext-R5-CodeSystem.concept.xlsx
+++ b/StructureDefinition-ext-R5-CodeSystem.concept.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,8 @@
 *  R4B: `CodeSystem.concept` 0..* `BackboneElement`
 *  R4: `CodeSystem.concept` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `CodeSystem.concept` is mapped to FHIR R4 element `CodeSystem.concept`.</t>
+Element `CodeSystem.concept` has is mapped to FHIR R4 element `CodeSystem.concept`, but has no comparisons.
+Note available implied context: `CodeSystem.concept.concept` because `CodeSystem.concept.concept` is defined as a content reference to `CodeSystem.concept`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +143,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:CodeSystem.concept</t>
   </si>
   <si>
     <t>ID</t>
@@ -343,8 +344,8 @@
     <t>A code - a text symbol - that uniquely identifies the concept within the code system.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.concept.code` is part of an existing definition because parent element `CodeSystem.concept` requires a component extension (e.g., if this element is used as a content reference).
-Element `CodeSystem.concept.code` is mapped to FHIR R4 element `CodeSystem.concept.code`.</t>
+    <t>Element `CodeSystem.concept.code` is part of an existing definition because parent element `CodeSystem.concept` requires a cross-version extension.
+Element `CodeSystem.concept.code` has is mapped to FHIR R4 element `CodeSystem.concept.code`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -429,8 +430,8 @@
     <t>A human readable string that is the recommended default way to present this concept to a user.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.concept.display` is part of an existing definition because parent element `CodeSystem.concept` requires a component extension (e.g., if this element is used as a content reference).
-Element `CodeSystem.concept.display` is mapped to FHIR R4 element `CodeSystem.concept.display`.</t>
+    <t>Element `CodeSystem.concept.display` is part of an existing definition because parent element `CodeSystem.concept` requires a cross-version extension.
+Element `CodeSystem.concept.display` has is mapped to FHIR R4 element `CodeSystem.concept.display`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:display.id</t>
@@ -460,8 +461,8 @@
     <t>The formal definition of the concept. The code system resource does not make formal definitions required, because of the prevalence of legacy systems. However, they are highly recommended, as without them there is no formal meaning associated with the concept.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.concept.definition` is part of an existing definition because parent element `CodeSystem.concept` requires a component extension (e.g., if this element is used as a content reference).
-Element `CodeSystem.concept.definition` is mapped to FHIR R4 element `CodeSystem.concept.definition`.</t>
+    <t>Element `CodeSystem.concept.definition` is part of an existing definition because parent element `CodeSystem.concept` requires a cross-version extension.
+Element `CodeSystem.concept.definition` has is mapped to FHIR R4 element `CodeSystem.concept.definition`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:definition.id</t>
@@ -494,8 +495,8 @@
     <t>Concepts have both a ```display``` and an array of ```designation```. The display is equivalent to a special designation with an implied ```designation.use``` of "primary code" and a language equal to the [Resource Language](https://hl7.org/fhir/resource..html#language).</t>
   </si>
   <si>
-    <t>Many concept definition systems support multiple representations, in multiple languages, and for multiple purposes. Element `CodeSystem.concept.designation` is part of an existing definition because parent element `CodeSystem.concept` requires a component extension (e.g., if this element is used as a content reference).
-Element `CodeSystem.concept.designation` is mapped to FHIR R4 element `CodeSystem.concept.designation`.</t>
+    <t>Many concept definition systems support multiple representations, in multiple languages, and for multiple purposes. Element `CodeSystem.concept.designation` is part of an existing definition because parent element `CodeSystem.concept` requires a cross-version extension.
+Element `CodeSystem.concept.designation` has is mapped to FHIR R4 element `CodeSystem.concept.designation`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:designation.id</t>
@@ -519,7 +520,8 @@
     <t>In the absence of a language, the resource language applies.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.concept.designation.language` is mapped to FHIR R4 element `CodeSystem.concept.designation.language`.</t>
+    <t>Element `CodeSystem.concept.designation.language` is part of an existing definition because parent element `CodeSystem.concept.designation` requires a cross-version extension.
+Element `CodeSystem.concept.designation.language` has is mapped to FHIR R4 element `CodeSystem.concept.designation.language`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:designation.extension:language.id</t>
@@ -564,7 +566,8 @@
     <t>If no use is provided, the designation can be assumed to be suitable for general display to a human user.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.concept.designation.use` is mapped to FHIR R4 element `CodeSystem.concept.designation.use`.</t>
+    <t>Element `CodeSystem.concept.designation.use` is part of an existing definition because parent element `CodeSystem.concept.designation` requires a cross-version extension.
+Element `CodeSystem.concept.designation.use` has is mapped to FHIR R4 element `CodeSystem.concept.designation.use`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:designation.extension:use.id</t>
@@ -610,7 +613,8 @@
     <t>This was added rather than increasing the cardinality of .use to 0..* in order to maintain backward compatibility.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.concept.designation.additionalUse` is will have a context of CodeSystem.concept.designation based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+    <t>Element `CodeSystem.concept.designation.additionalUse` is part of an existing definition because parent element `CodeSystem.concept.designation` requires a cross-version extension.
+Element `CodeSystem.concept.designation.additionalUse` has a context of CodeSystem.concept.designation based on following the parent source element upwards and mapping to `CodeSystem`.</t>
   </si>
   <si>
     <t>Extension.extension:designation.extension:additionalUse.id</t>
@@ -640,7 +644,8 @@
     <t>The text value for this designation.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.concept.designation.value` is mapped to FHIR R4 element `CodeSystem.concept.designation.value`.</t>
+    <t>Element `CodeSystem.concept.designation.value` is part of an existing definition because parent element `CodeSystem.concept.designation` requires a cross-version extension.
+Element `CodeSystem.concept.designation.value` has is mapped to FHIR R4 element `CodeSystem.concept.designation.value`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:designation.extension:value.id</t>
@@ -689,8 +694,8 @@
     <t>A property value for this concept.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.concept.property` is part of an existing definition because parent element `CodeSystem.concept` requires a component extension (e.g., if this element is used as a content reference).
-Element `CodeSystem.concept.property` is mapped to FHIR R4 element `CodeSystem.concept.property`.</t>
+    <t>Element `CodeSystem.concept.property` is part of an existing definition because parent element `CodeSystem.concept` requires a cross-version extension.
+Element `CodeSystem.concept.property` has is mapped to FHIR R4 element `CodeSystem.concept.property`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:property.id</t>
@@ -711,7 +716,8 @@
     <t>A code that is a reference to CodeSystem.property.code.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.concept.property.code` is mapped to FHIR R4 element `CodeSystem.concept.property.code`.</t>
+    <t>Element `CodeSystem.concept.property.code` is part of an existing definition because parent element `CodeSystem.concept.property` requires a cross-version extension.
+Element `CodeSystem.concept.property.code` has is mapped to FHIR R4 element `CodeSystem.concept.property.code`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:property.extension:code.id</t>
@@ -738,8 +744,9 @@
     <t>The value of this property.</t>
   </si>
   <si>
-    <t>Note that the target element context `CodeSystem.concept.property.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `CodeSystem.concept.property`.
-Element `CodeSystem.concept.property.value[x]` is mapped to FHIR R4 element `CodeSystem.concept.property.value[x]`.
+    <t>Element `CodeSystem.concept.property.value[x]` is part of an existing definition because parent element `CodeSystem.concept.property` requires a cross-version extension.
+Note that the target element context `CodeSystem.concept.property.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `CodeSystem.concept.property`.
+Element `CodeSystem.concept.property.value[x]` has is mapped to FHIR R4 element `CodeSystem.concept.property.value[x]`, but has no comparisons.
 Note that the target element context `CodeSystem.concept.property.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `CodeSystem.concept.property`.</t>
   </si>
   <si>
@@ -783,8 +790,8 @@
     <t>Defines children of a concept to produce a hierarchy of concepts. The nature of the relationships is variable (is-a/contains/categorizes) - see hierarchyMeaning.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.concept.concept` is part of an existing definition because parent element `CodeSystem.concept` requires a component extension (e.g., if this element is used as a content reference).
-Element `CodeSystem.concept.concept` is mapped to FHIR R4 element `CodeSystem.concept.concept`.</t>
+    <t>Element `CodeSystem.concept.concept` is part of an existing definition because parent element `CodeSystem.concept` requires a cross-version extension.
+Element `CodeSystem.concept.concept` has is mapped to FHIR R4 element `CodeSystem.concept.concept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -1136,7 +1143,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="221.2890625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-CodeSystem.concept.xlsx
+++ b/StructureDefinition-ext-R5-CodeSystem.concept.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="248">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -587,15 +587,6 @@
   <si>
     <t xml:space="preserve">Coding
 </t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Details of how a designation would be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-designation-use-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:designation.extension:additionalUse</t>
@@ -1153,8 +1144,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="36.26953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.14453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4487,13 +4478,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4531,13 +4522,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4562,16 +4553,16 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4640,7 +4631,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>162</v>
@@ -4743,7 +4734,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>164</v>
@@ -4848,7 +4839,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>166</v>
@@ -4891,7 +4882,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4953,7 +4944,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>169</v>
@@ -4982,13 +4973,13 @@
         <v>181</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5014,13 +5005,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -5058,13 +5049,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5089,14 +5080,14 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5165,7 +5156,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>162</v>
@@ -5268,7 +5259,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>164</v>
@@ -5373,7 +5364,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>166</v>
@@ -5416,7 +5407,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5478,7 +5469,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>169</v>
@@ -5507,10 +5498,10 @@
         <v>88</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5581,7 +5572,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -5624,7 +5615,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5686,7 +5677,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -5712,13 +5703,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5789,13 +5780,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -5820,14 +5811,14 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -5896,7 +5887,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -5999,7 +5990,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6010,7 +6001,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -6102,7 +6093,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>108</v>
@@ -6133,14 +6124,14 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6209,7 +6200,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>162</v>
@@ -6312,7 +6303,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>164</v>
@@ -6417,7 +6408,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>166</v>
@@ -6460,7 +6451,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6522,7 +6513,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>169</v>
@@ -6551,10 +6542,10 @@
         <v>124</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6625,13 +6616,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -6656,14 +6647,14 @@
         <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -6732,7 +6723,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>162</v>
@@ -6835,7 +6826,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>164</v>
@@ -6940,7 +6931,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>166</v>
@@ -6983,7 +6974,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7045,7 +7036,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>169</v>
@@ -7071,13 +7062,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7148,7 +7139,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7191,7 +7182,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7253,7 +7244,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -7279,13 +7270,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7356,13 +7347,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7387,14 +7378,14 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7463,7 +7454,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -7566,7 +7557,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -7671,7 +7662,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -7776,7 +7767,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -7802,13 +7793,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8010,13 +8001,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
